--- a/plots/loss_var.xlsx
+++ b/plots/loss_var.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F025C02-02A2-1C49-B1B5-39CF4FBE983F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB19A0B-C36F-FA4A-8997-0B9DBAB8867A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{E9C28648-8E34-CC4E-A83F-CC52D69A8223}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E9C28648-8E34-CC4E-A83F-CC52D69A8223}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$1680</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$1680</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$1680</definedName>
     <definedName name="loss_var_out" localSheetId="0">Sheet1!$A$2:$C$1680</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,8 +34,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{9D7F735E-4916-934E-A2DC-0D2AAE2F3362}" name="loss_var_out" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tobiasba/repos/experimentscripts/out/loss_var_out.csv" thousands="'" tab="0" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="loss_var_out" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/tobiasba/repos/experimentscripts/out/loss_var_out.csv" thousands="'" tab="0" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -126,7 +131,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -139,7 +144,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Packet Loss</a:t>
             </a:r>
           </a:p>
@@ -158,7 +163,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -20706,7 +20711,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -20738,12 +20743,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -21326,10 +21326,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -21364,7 +21364,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="loss_var_out" connectionId="1" xr16:uid="{FC2637B0-F6D6-2347-B4EA-D2EE9C1C5BBA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="loss_var_out" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21667,7 +21667,7 @@
   <dimension ref="A1:C1680"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/plots/loss_var.xlsx
+++ b/plots/loss_var.xlsx
@@ -8,19 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasba/repos/experimentscripts/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB19A0B-C36F-FA4A-8997-0B9DBAB8867A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEB083-EE8B-DD4E-86C6-A5C8F8966D9E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E9C28648-8E34-CC4E-A83F-CC52D69A8223}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{E9C28648-8E34-CC4E-A83F-CC52D69A8223}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$1680</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$1680</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$1680</definedName>
     <definedName name="loss_var_out" localSheetId="0">Sheet1!$A$2:$C$1680</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -55,7 +50,7 @@
     <t>Loss</t>
   </si>
   <si>
-    <t>Actual</t>
+    <t>Introduced</t>
   </si>
 </sst>
 </file>
@@ -10329,7 +10324,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>Introduced</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20481,7 +20476,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -20494,7 +20489,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>s</a:t>
                 </a:r>
               </a:p>
@@ -20513,7 +20508,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -20599,7 +20594,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -20612,7 +20607,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>%</a:t>
                 </a:r>
               </a:p>
@@ -20631,7 +20626,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -21667,7 +21662,7 @@
   <dimension ref="A1:C1680"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
